--- a/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
+++ b/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0D98B-4134-454C-BAA4-B906CF9426E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEFB347-B4D7-4183-B905-4A7756A81678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="167">
   <si>
     <t>JOBPLAN / MASTER PM?</t>
   </si>
@@ -63,9 +66,6 @@
     <t>1200K Km Overhaul</t>
   </si>
   <si>
-    <t>JP10000283</t>
-  </si>
-  <si>
     <t>Per train (EQ_LEVEL=1)</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>JP10000068</t>
   </si>
   <si>
     <t>Patrol DBG-BNK N/S</t>
@@ -157,12 +154,432 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>JP10000283 (Train)</t>
+  </si>
+  <si>
+    <t>JP10000068 (Tunnel)</t>
+  </si>
+  <si>
+    <t>DEM_ISS</t>
+  </si>
+  <si>
+    <t>DEM_ITEMS</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>DEM_TYPE=49</t>
+  </si>
+  <si>
+    <t>MRLINE</t>
+  </si>
+  <si>
+    <t>INVRESERVE</t>
+  </si>
+  <si>
+    <t>ISS_ITEMS</t>
+  </si>
+  <si>
+    <t>MATUSETRANS</t>
+  </si>
+  <si>
+    <t>MATUSETRANS (ISSUE)</t>
+  </si>
+  <si>
+    <t>INVRESERVE (IF MR.STATUS='APPR')</t>
+  </si>
+  <si>
+    <t>INVUSE (IF HAS MATUSETRANS)</t>
+  </si>
+  <si>
+    <t>INVUSELINE</t>
+  </si>
+  <si>
+    <t>DEM_TYPE=52</t>
+  </si>
+  <si>
+    <t>MR (MIXED)</t>
+  </si>
+  <si>
+    <t>NO MR (ORIG MR)</t>
+  </si>
+  <si>
+    <t>MATUSETRANS (RETURN)</t>
+  </si>
+  <si>
+    <t>DEM_TYPE=53</t>
+  </si>
+  <si>
+    <t>NO MR</t>
+  </si>
+  <si>
+    <t>INVUSE (IF HAS MATRECTRANS)</t>
+  </si>
+  <si>
+    <t>MATUSETRANS / MATRECTRANS</t>
+  </si>
+  <si>
+    <t>MATRECTRANS (TRANSFER)</t>
+  </si>
+  <si>
+    <t>(DT_STR,10,1252)(LEFT("WO00000000",10 - LEN((DT_WSTR,8)PK_WIP_WO)) + (DT_WSTR,8)PK_WIP_WO)</t>
+  </si>
+  <si>
+    <t>WONUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXIMO  </t>
+  </si>
+  <si>
+    <t>AMCREWWOLAB</t>
+  </si>
+  <si>
+    <t>AMCREWWOTL</t>
+  </si>
+  <si>
+    <t>APPTBOOKASSIGNMENTS</t>
+  </si>
+  <si>
+    <t>AREASAFFECTED</t>
+  </si>
+  <si>
+    <t>ASSETHIERARCHY</t>
+  </si>
+  <si>
+    <t>ASSETHISTORY</t>
+  </si>
+  <si>
+    <t>ASSETROLLUPSTATUS</t>
+  </si>
+  <si>
+    <t>ASSETSTATUS</t>
+  </si>
+  <si>
+    <t>ASSETTRANS</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT</t>
+  </si>
+  <si>
+    <t>ASSIGNREPLOC</t>
+  </si>
+  <si>
+    <t>AUTOATTRUPDATE</t>
+  </si>
+  <si>
+    <t>A_MR</t>
+  </si>
+  <si>
+    <t>A_MRLINE</t>
+  </si>
+  <si>
+    <t>REFWO</t>
+  </si>
+  <si>
+    <t>A_POLINE</t>
+  </si>
+  <si>
+    <t>A_PRLINE</t>
+  </si>
+  <si>
+    <t>A_RFQLINE</t>
+  </si>
+  <si>
+    <t>A_WORKORDER</t>
+  </si>
+  <si>
+    <t>FAILUREREMARK</t>
+  </si>
+  <si>
+    <t>FAILUREREPORT</t>
+  </si>
+  <si>
+    <t>INVOICECOST</t>
+  </si>
+  <si>
+    <t>LABTRANS</t>
+  </si>
+  <si>
+    <t>LBSLOCATION</t>
+  </si>
+  <si>
+    <t>MATRECTRANS</t>
+  </si>
+  <si>
+    <t>PLUSCSPOTCHECK</t>
+  </si>
+  <si>
+    <t>PLUSCWODS</t>
+  </si>
+  <si>
+    <t>PLUSCWODSINSTR</t>
+  </si>
+  <si>
+    <t>PLUSCWODSPOINT</t>
+  </si>
+  <si>
+    <t>PLUSTACTIVITY</t>
+  </si>
+  <si>
+    <t>PLUSTCLAIM</t>
+  </si>
+  <si>
+    <t>PLUSTCONDITION</t>
+  </si>
+  <si>
+    <t>PLUSTDISPASSIGN</t>
+  </si>
+  <si>
+    <t>PLUSTLOGPROB</t>
+  </si>
+  <si>
+    <t>PLUSTMPCHARGEDETAIL</t>
+  </si>
+  <si>
+    <t>PLUSTMPTRANS</t>
+  </si>
+  <si>
+    <t>PLUSTPMHIST</t>
+  </si>
+  <si>
+    <t>PLUSTVR</t>
+  </si>
+  <si>
+    <t>PLUSTVS</t>
+  </si>
+  <si>
+    <t>PLUSTWOASSET</t>
+  </si>
+  <si>
+    <t>PLUSTWOMEASUREMENT</t>
+  </si>
+  <si>
+    <t>PLUSTWOQUALDTL</t>
+  </si>
+  <si>
+    <t>PLUSTWOQUALFLG</t>
+  </si>
+  <si>
+    <t>PLUSTWOQUALREQ</t>
+  </si>
+  <si>
+    <t>PLUSTWPSERV</t>
+  </si>
+  <si>
+    <t>POINTWO</t>
+  </si>
+  <si>
+    <t>POLINE</t>
+  </si>
+  <si>
+    <t>PRLINE</t>
+  </si>
+  <si>
+    <t>REORDERPAD</t>
+  </si>
+  <si>
+    <t>RFQLINE</t>
+  </si>
+  <si>
+    <t>SERVRECTRANS</t>
+  </si>
+  <si>
+    <t>SKDACTIVITYQBE</t>
+  </si>
+  <si>
+    <t>SKDCOMPLIANCEWOLIST</t>
+  </si>
+  <si>
+    <t>SKDUSAGE</t>
+  </si>
+  <si>
+    <t>SKDWOBREAKINOUT</t>
+  </si>
+  <si>
+    <t>STE_ALTFAILURECODE</t>
+  </si>
+  <si>
+    <t>STE_KPI_WO_DATA_MONTHLY</t>
+  </si>
+  <si>
+    <t>STE_KPI_WO_DATA_WEEKLY</t>
+  </si>
+  <si>
+    <t>TOOLTRANS</t>
+  </si>
+  <si>
+    <t>UNASSIGNEDWORKVIEW</t>
+  </si>
+  <si>
+    <t>WMASSIGNMENT</t>
+  </si>
+  <si>
+    <t>WMASSIGNTMP</t>
+  </si>
+  <si>
+    <t>WOACTIVITY</t>
+  </si>
+  <si>
+    <t>WOANCESTOR</t>
+  </si>
+  <si>
+    <t>WOCHANGE</t>
+  </si>
+  <si>
+    <t>WOCONTRACT</t>
+  </si>
+  <si>
+    <t>WOHAZARD</t>
+  </si>
+  <si>
+    <t>WOHAZARDPREC</t>
+  </si>
+  <si>
+    <t>WOLOCKOUT</t>
+  </si>
+  <si>
+    <t>WOMETER</t>
+  </si>
+  <si>
+    <t>WOOWNERHISTORY</t>
+  </si>
+  <si>
+    <t>WOPRECAUTION</t>
+  </si>
+  <si>
+    <t>WORELEASE</t>
+  </si>
+  <si>
+    <t>WORELEXT</t>
+  </si>
+  <si>
+    <t>WORKORDER</t>
+  </si>
+  <si>
+    <t>WORKORDERSPEC</t>
+  </si>
+  <si>
+    <t>WOSAFETYLINK</t>
+  </si>
+  <si>
+    <t>WOSAFETYPLAN</t>
+  </si>
+  <si>
+    <t>WOSERVICEADDRESS</t>
+  </si>
+  <si>
+    <t>WOSTATUS</t>
+  </si>
+  <si>
+    <t>WOTAGLOCK</t>
+  </si>
+  <si>
+    <t>WOTAGOUT</t>
+  </si>
+  <si>
+    <t>WOTASKRELATION</t>
+  </si>
+  <si>
+    <t>WOWEATHERALERT</t>
+  </si>
+  <si>
+    <t>WPITEM</t>
+  </si>
+  <si>
+    <t>WPLABOR</t>
+  </si>
+  <si>
+    <t>WPMATERIAL</t>
+  </si>
+  <si>
+    <t>WPSERVICE</t>
+  </si>
+  <si>
+    <t>WPTOOL</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>ORIGRECORDID, ORIGRECORDCLASS</t>
+  </si>
+  <si>
+    <t>TICKET</t>
+  </si>
+  <si>
+    <t>RELATEDRECORD</t>
+  </si>
+  <si>
+    <t>RECORDKEY, CLASS</t>
+  </si>
+  <si>
+    <t>RELATEDRECKEY, RELATEDRECCLASS</t>
+  </si>
+  <si>
+    <t>MULTIASSETLOCCI</t>
+  </si>
+  <si>
+    <t>RECORDKEY, RECORDCLASS</t>
+  </si>
+  <si>
+    <t>AMCREW</t>
+  </si>
+  <si>
+    <t>STE_MAINTENTITY</t>
+  </si>
+  <si>
+    <t>A_JOBPLAN</t>
+  </si>
+  <si>
+    <t>A_PM</t>
+  </si>
+  <si>
+    <t>A_TICKET</t>
+  </si>
+  <si>
+    <t>INCIDENT</t>
+  </si>
+  <si>
+    <t>INSPECTIONFORM</t>
+  </si>
+  <si>
+    <t>JOBPLAN</t>
+  </si>
+  <si>
+    <t>MASTERPM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>ROUTES</t>
+  </si>
+  <si>
+    <t>SKDEXTRACAPCREWVIEW</t>
+  </si>
+  <si>
+    <t>STE_ITEM_MAINTENTITY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,16 +594,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,20 +649,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE3EAD1-5D7F-428E-B64E-795319B18381}">
   <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,29 +1017,30 @@
     <col min="2" max="2" width="47.21875" customWidth="1"/>
     <col min="3" max="3" width="34.44140625" customWidth="1"/>
     <col min="4" max="4" width="34.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -562,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -600,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -638,13 +1125,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -652,17 +1139,17 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -671,35 +1158,1536 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCD19E1-F34A-4E25-8538-69A9B492F6E5}">
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="20.21875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD184B-C6F8-4F31-8D2A-284FDE81C0C4}">
+  <dimension ref="B1:D98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E741E64-5E04-4557-A00A-5FCC4A989B13}">
+  <dimension ref="B1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
+++ b/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEFB347-B4D7-4183-B905-4A7756A81678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011F3F5-726F-4335-8143-170B65A2216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +608,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +648,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -663,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -680,17 +694,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -1314,7 +1333,7 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1327,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD184B-C6F8-4F31-8D2A-284FDE81C0C4}">
   <dimension ref="B1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,13 +1357,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1437,13 +1456,13 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1558,57 +1577,57 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1624,46 +1643,46 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1855,13 +1874,13 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1899,24 +1918,24 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1932,24 +1951,24 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1998,13 +2017,13 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2086,13 +2105,13 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2207,13 +2226,13 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2251,24 +2270,24 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2317,35 +2336,35 @@
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="8" t="s">
+      <c r="B90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2372,46 +2391,46 @@
       </c>
     </row>
     <row r="95" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B95" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="B95" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="B97" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B98" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="8" t="s">
+      <c r="B98" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2424,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E741E64-5E04-4557-A00A-5FCC4A989B13}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -2435,24 +2454,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2523,24 +2542,24 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2567,13 +2586,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2589,13 +2608,13 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2611,35 +2630,35 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2677,13 +2696,13 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
+++ b/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6011F3F5-726F-4335-8143-170B65A2216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576A090-A403-4483-8F7C-77C8829840A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="202">
   <si>
     <t>JOBPLAN / MASTER PM?</t>
   </si>
@@ -573,6 +574,111 @@
   </si>
   <si>
     <t>STE_ITEM_MAINTENTITY</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>GLACCOUNT</t>
+  </si>
+  <si>
+    <t>GLDEBITACCT</t>
+  </si>
+  <si>
+    <t>A_ASSET</t>
+  </si>
+  <si>
+    <t>A_INVCOST</t>
+  </si>
+  <si>
+    <t>A_INVENTORY</t>
+  </si>
+  <si>
+    <t>A_LOCATIONS</t>
+  </si>
+  <si>
+    <t>BIMSESSION</t>
+  </si>
+  <si>
+    <t>CHARTOFACCOUNTS</t>
+  </si>
+  <si>
+    <t>DEPSCHED</t>
+  </si>
+  <si>
+    <t>DEPSCHEDHISTORY</t>
+  </si>
+  <si>
+    <t>DEPTRANS</t>
+  </si>
+  <si>
+    <t>DPAUSERINFO</t>
+  </si>
+  <si>
+    <t>INVCOST</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>INVOICETRANS</t>
+  </si>
+  <si>
+    <t>INVTRANS</t>
+  </si>
+  <si>
+    <t>ITEMORGINFO</t>
+  </si>
+  <si>
+    <t>LABORCRAFTRATE</t>
+  </si>
+  <si>
+    <t>LOCATIONS</t>
+  </si>
+  <si>
+    <t>MRCOST</t>
+  </si>
+  <si>
+    <t>PLUSTALIASVIEW</t>
+  </si>
+  <si>
+    <t>PLUSTVEND</t>
+  </si>
+  <si>
+    <t>POCOST</t>
+  </si>
+  <si>
+    <t>PRCOST</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>SCHEDULELINE</t>
+  </si>
+  <si>
+    <t>SCHLEASEVIEW</t>
+  </si>
+  <si>
+    <t>SCHPURCHVIEW</t>
+  </si>
+  <si>
+    <t>SCHWARRANTYVIEW</t>
+  </si>
+  <si>
+    <t>STE_CSWNRECEIPT_PER_CC</t>
+  </si>
+  <si>
+    <t>STE_RPT_STOCK_ISSUE</t>
+  </si>
+  <si>
+    <t>TOOLINV</t>
+  </si>
+  <si>
+    <t>USERPURGL</t>
+  </si>
+  <si>
+    <t>WOGEN</t>
   </si>
 </sst>
 </file>
@@ -617,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +760,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -677,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -710,6 +822,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -1346,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECD184B-C6F8-4F31-8D2A-284FDE81C0C4}">
   <dimension ref="B1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
@@ -2444,7 +2557,7 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,4 +2822,827 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9907-C327-4F28-BAA6-B325243B6F83}">
+  <dimension ref="B1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
+++ b/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576A090-A403-4483-8F7C-77C8829840A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AB421-9DD4-44D3-BA6C-892E62C25FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$B$1:$E$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="204">
   <si>
     <t>JOBPLAN / MASTER PM?</t>
   </si>
@@ -679,6 +682,12 @@
   </si>
   <si>
     <t>WOGEN</t>
+  </si>
+  <si>
+    <t>GLCOMPONENTS</t>
+  </si>
+  <si>
+    <t>COMPVALUE</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -823,12 +832,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2557,7 +2577,7 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,20 +2846,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9907-C327-4F28-BAA6-B325243B6F83}">
-  <dimension ref="B1:D73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
@@ -2849,8 +2871,11 @@
       <c r="D1" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -2860,8 +2885,11 @@
       <c r="D2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -2871,8 +2899,11 @@
       <c r="D3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -2882,8 +2913,11 @@
       <c r="D4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>52</v>
       </c>
@@ -2893,8 +2927,11 @@
       <c r="D5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -2904,8 +2941,11 @@
       <c r="D6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>52</v>
       </c>
@@ -2915,8 +2955,11 @@
       <c r="D7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -2926,8 +2969,11 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -2937,8 +2983,11 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -2948,8 +2997,11 @@
       <c r="D10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -2959,8 +3011,11 @@
       <c r="D11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>52</v>
       </c>
@@ -2970,8 +3025,11 @@
       <c r="D12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>52</v>
       </c>
@@ -2981,8 +3039,11 @@
       <c r="D13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -2992,8 +3053,11 @@
       <c r="D14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>52</v>
       </c>
@@ -3003,8 +3067,11 @@
       <c r="D15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -3014,8 +3081,11 @@
       <c r="D16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -3025,8 +3095,11 @@
       <c r="D17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -3036,8 +3109,11 @@
       <c r="D18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -3047,8 +3123,11 @@
       <c r="D19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -3058,8 +3137,11 @@
       <c r="D20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -3069,8 +3151,11 @@
       <c r="D21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -3080,8 +3165,11 @@
       <c r="D22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -3091,8 +3179,11 @@
       <c r="D23" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -3102,8 +3193,11 @@
       <c r="D24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -3113,8 +3207,11 @@
       <c r="D25" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -3124,8 +3221,11 @@
       <c r="D26" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>52</v>
       </c>
@@ -3135,8 +3235,11 @@
       <c r="D27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -3146,8 +3249,11 @@
       <c r="D28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -3157,8 +3263,11 @@
       <c r="D29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -3168,8 +3277,11 @@
       <c r="D30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -3179,8 +3291,11 @@
       <c r="D31" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -3190,8 +3305,11 @@
       <c r="D32" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -3201,8 +3319,11 @@
       <c r="D33" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -3212,8 +3333,11 @@
       <c r="D34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -3223,8 +3347,11 @@
       <c r="D35" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -3234,8 +3361,11 @@
       <c r="D36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -3245,8 +3375,11 @@
       <c r="D37" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -3256,8 +3389,11 @@
       <c r="D38" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>52</v>
       </c>
@@ -3267,8 +3403,11 @@
       <c r="D39" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -3278,8 +3417,11 @@
       <c r="D40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -3289,8 +3431,11 @@
       <c r="D41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -3300,8 +3445,11 @@
       <c r="D42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -3311,8 +3459,11 @@
       <c r="D43" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3322,8 +3473,11 @@
       <c r="D44" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -3333,8 +3487,11 @@
       <c r="D45" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -3344,8 +3501,11 @@
       <c r="D46" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -3355,8 +3515,11 @@
       <c r="D47" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>52</v>
       </c>
@@ -3366,8 +3529,11 @@
       <c r="D48" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -3377,8 +3543,11 @@
       <c r="D49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>52</v>
       </c>
@@ -3388,8 +3557,11 @@
       <c r="D50" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>52</v>
       </c>
@@ -3399,8 +3571,11 @@
       <c r="D51" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -3410,8 +3585,11 @@
       <c r="D52" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -3421,8 +3599,11 @@
       <c r="D53" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>52</v>
       </c>
@@ -3432,8 +3613,11 @@
       <c r="D54" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -3443,8 +3627,11 @@
       <c r="D55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>52</v>
       </c>
@@ -3454,8 +3641,11 @@
       <c r="D56" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>52</v>
       </c>
@@ -3465,8 +3655,11 @@
       <c r="D57" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>52</v>
       </c>
@@ -3476,8 +3669,11 @@
       <c r="D58" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>52</v>
       </c>
@@ -3487,8 +3683,11 @@
       <c r="D59" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>52</v>
       </c>
@@ -3498,8 +3697,11 @@
       <c r="D60" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="D61" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -3520,8 +3725,11 @@
       <c r="D62" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>52</v>
       </c>
@@ -3531,8 +3739,11 @@
       <c r="D63" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>52</v>
       </c>
@@ -3542,8 +3753,11 @@
       <c r="D64" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>52</v>
       </c>
@@ -3553,8 +3767,11 @@
       <c r="D65" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>52</v>
       </c>
@@ -3564,8 +3781,11 @@
       <c r="D66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -3575,8 +3795,11 @@
       <c r="D67" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>52</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="D68" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>52</v>
       </c>
@@ -3597,8 +3823,11 @@
       <c r="D69" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -3608,8 +3837,11 @@
       <c r="D70" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>52</v>
       </c>
@@ -3619,8 +3851,11 @@
       <c r="D71" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>52</v>
       </c>
@@ -3630,8 +3865,11 @@
       <c r="D72" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -3641,8 +3879,30 @@
       <c r="D73" t="s">
         <v>168</v>
       </c>
+      <c r="E73" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:E74" xr:uid="{107E9907-C327-4F28-BAA6-B325243B6F83}">
+    <filterColumn colId="3">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
+++ b/Integration Services Project2/notes/jobplan-jobtask-pm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\STE.2022.CoswinMigration\Integration Services Project2\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AB421-9DD4-44D3-BA6C-892E62C25FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43520952-2D24-46CF-82CD-E97BF162DC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{42E33BE7-C02F-4CFC-BC40-A2D7D2838797}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="209">
   <si>
     <t>JOBPLAN / MASTER PM?</t>
   </si>
@@ -688,6 +688,21 @@
   </si>
   <si>
     <t>COMPVALUE</t>
+  </si>
+  <si>
+    <t>FROM MRLINE</t>
+  </si>
+  <si>
+    <t>FROM INVUSELINE</t>
+  </si>
+  <si>
+    <t>MIGRATION_SOURCE=DEM-TRANSFER, FROM INVUSELINE</t>
+  </si>
+  <si>
+    <t>MIGRATION_SOURCE=RCT_ITEMS, FROM POLINE</t>
+  </si>
+  <si>
+    <t>FROM POLINE</t>
   </si>
 </sst>
 </file>
@@ -798,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -834,6 +849,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -2847,11 +2865,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107E9907-C327-4F28-BAA6-B325243B6F83}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:E74"/>
+  <dimension ref="B1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,6 +2877,8 @@
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2885,7 +2905,7 @@
       <c r="D2" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3085,7 +3105,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -3099,7 +3119,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>52</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -3141,7 +3161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -3169,7 +3189,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -3179,11 +3199,11 @@
       <c r="D23" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -3193,11 +3213,11 @@
       <c r="D24" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -3211,7 +3231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>52</v>
       </c>
@@ -3225,7 +3245,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>52</v>
       </c>
@@ -3235,11 +3255,14 @@
       <c r="D27" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -3249,11 +3272,11 @@
       <c r="D28" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -3263,11 +3286,14 @@
       <c r="D29" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -3281,7 +3307,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -3295,7 +3321,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -3309,7 +3335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -3323,7 +3349,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -3333,11 +3359,17 @@
       <c r="D34" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -3347,11 +3379,14 @@
       <c r="D35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -3361,11 +3396,11 @@
       <c r="D36" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -3375,11 +3410,11 @@
       <c r="D37" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -3389,11 +3424,11 @@
       <c r="D38" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>52</v>
       </c>
@@ -3407,7 +3442,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -3421,7 +3456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -3435,7 +3470,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -3449,7 +3484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -3463,7 +3498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3477,7 +3512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -3491,7 +3526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -3501,11 +3536,11 @@
       <c r="D46" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -3515,11 +3550,11 @@
       <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>52</v>
       </c>
@@ -3529,11 +3564,11 @@
       <c r="D48" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -3543,11 +3578,11 @@
       <c r="D49" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>52</v>
       </c>
@@ -3561,7 +3596,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>52</v>
       </c>
@@ -3575,7 +3610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -3589,7 +3624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -3599,11 +3634,11 @@
       <c r="D53" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>52</v>
       </c>
@@ -3617,7 +3652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -3631,7 +3666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>52</v>
       </c>
@@ -3645,7 +3680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>52</v>
       </c>
@@ -3659,7 +3694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3708,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>52</v>
       </c>
@@ -3683,11 +3718,14 @@
       <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>52</v>
       </c>
@@ -3697,11 +3735,14 @@
       <c r="D60" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -3711,11 +3752,11 @@
       <c r="D61" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -3729,7 +3770,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>52</v>
       </c>
@@ -3739,11 +3780,11 @@
       <c r="D63" t="s">
         <v>168</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>52</v>
       </c>
@@ -3757,7 +3798,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>52</v>
       </c>
@@ -3771,7 +3812,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>52</v>
       </c>
@@ -3785,7 +3826,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -3795,11 +3836,14 @@
       <c r="D67" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>52</v>
       </c>
@@ -3809,11 +3853,14 @@
       <c r="D68" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>52</v>
       </c>
@@ -3827,7 +3874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -3841,7 +3888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>52</v>
       </c>
@@ -3855,7 +3902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>52</v>
       </c>
@@ -3865,11 +3912,11 @@
       <c r="D72" t="s">
         <v>168</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>52</v>
       </c>
@@ -3879,11 +3926,11 @@
       <c r="D73" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>52</v>
       </c>
@@ -3893,7 +3940,7 @@
       <c r="D74" t="s">
         <v>203</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="16" t="s">
         <v>202</v>
       </c>
     </row>
